--- a/Data/EC/NIT-9009859891.xlsx
+++ b/Data/EC/NIT-9009859891.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{9063A952-CB84-429F-941F-7EB71D22A202}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA7DB32-B586-4909-AF4A-5EF960921807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{5466F455-100D-4FDE-8D03-D8231EDEE25D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{566D40CC-1B84-4D33-A4A8-5901BA22F800}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="81">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,187 +65,196 @@
     <t>CC</t>
   </si>
   <si>
+    <t>1047509031</t>
+  </si>
+  <si>
+    <t>ZURY ZADAY MONTES JIMENEZ</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
     <t>1238340101</t>
   </si>
   <si>
     <t>DANIELA MARITZA LADEUT HERNANDEZ</t>
   </si>
   <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
     <t>1906</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -289,7 +298,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -659,7 +668,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3E8604D-587E-1B5D-3732-61CE41527999}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B77EC36-2174-85E9-1DB9-FDAE31576C6A}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1010,32 +1019,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C2E93D-BCB6-45C7-8955-8B6A7EE06DAD}">
-  <dimension ref="B2:J80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1C57DB-A94B-4FEC-9BA9-43B521CA1639}">
+  <dimension ref="B2:J82"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="35.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10">
+    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1044,7 +1053,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10">
+    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1055,7 +1064,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10">
+    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1066,7 +1075,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10">
+    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1077,10 +1086,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1"/>
-    <row r="7" spans="2:10">
+    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1093,8 +1102,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
-    <row r="9" spans="2:10">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1109,15 +1118,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
-    <row r="11" spans="2:10">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2069621</v>
+        <v>2127731</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1125,27 +1134,27 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
-    <row r="13" spans="2:10">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="C13" s="5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="F13" s="5">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10">
+    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1165,16 +1174,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1188,30 +1197,30 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>33125</v>
+        <v>56940</v>
       </c>
       <c r="G16" s="18">
-        <v>877803</v>
+        <v>1300000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D17" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
-        <v>35112</v>
+        <v>1170</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1220,18 +1229,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1243,18 +1252,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1266,18 +1275,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1289,18 +1298,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1312,18 +1321,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1335,18 +1344,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>11</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1358,18 +1367,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1381,18 +1390,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10">
+    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1404,18 +1413,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1427,18 +1436,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1450,18 +1459,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10">
+    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1473,18 +1482,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1496,18 +1505,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10">
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1519,18 +1528,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10">
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1542,18 +1551,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10">
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1565,18 +1574,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10">
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1588,18 +1597,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10">
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1611,18 +1620,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10">
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1634,18 +1643,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10">
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1657,18 +1666,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10">
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1680,18 +1689,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10">
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1703,18 +1712,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10">
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1726,18 +1735,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10">
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1749,18 +1758,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10">
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1772,18 +1781,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10">
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1795,18 +1804,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10">
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1818,18 +1827,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10">
+    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1841,18 +1850,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10">
+    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1864,18 +1873,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10">
+    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1887,18 +1896,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10">
+    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1910,18 +1919,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10">
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="F48" s="18">
         <v>35112</v>
@@ -1933,18 +1942,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10">
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1956,18 +1965,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10">
+    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1979,18 +1988,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10">
+    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2002,18 +2011,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10">
+    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -2025,18 +2034,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10">
+    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2048,18 +2057,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10">
+    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -2071,18 +2080,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10">
+    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2094,18 +2103,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10">
+    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2117,18 +2126,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10">
+    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2140,18 +2149,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10">
+    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2163,18 +2172,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10">
+    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2186,18 +2195,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10">
+    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2209,18 +2218,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10">
+    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2232,18 +2241,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10">
+    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2255,18 +2264,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10">
+    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2278,18 +2287,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10">
+    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2301,18 +2310,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10">
+    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2324,18 +2333,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10">
+    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2347,18 +2356,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10">
+    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
@@ -2370,18 +2379,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10">
+    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2393,18 +2402,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10">
+    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2416,18 +2425,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10">
+    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>65</v>
+        <v>66</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
@@ -2439,18 +2448,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10">
+    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F71" s="18">
         <v>35112</v>
@@ -2462,18 +2471,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10">
+    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F72" s="18">
         <v>35112</v>
@@ -2485,18 +2494,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10">
+    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F73" s="18">
         <v>35112</v>
@@ -2508,57 +2517,103 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10">
-      <c r="B74" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>9</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F74" s="24">
-        <v>35112</v>
-      </c>
-      <c r="G74" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="26"/>
-    </row>
-    <row r="79" spans="2:10">
-      <c r="B79" s="32" t="s">
-        <v>79</v>
-      </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>79</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="2:10">
-      <c r="B80" s="32" t="s">
-        <v>78</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="H80" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="F74" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G74" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>12</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>13</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="F75" s="18">
+        <v>35112</v>
+      </c>
+      <c r="G75" s="18">
+        <v>877803</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="22" t="s">
+        <v>12</v>
+      </c>
+      <c r="D76" s="23" t="s">
+        <v>13</v>
+      </c>
+      <c r="E76" s="22" t="s">
+        <v>72</v>
+      </c>
+      <c r="F76" s="24">
+        <v>33125</v>
+      </c>
+      <c r="G76" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H76" s="25"/>
+      <c r="I76" s="25"/>
+      <c r="J76" s="26"/>
+    </row>
+    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B81" s="32" t="s">
+        <v>82</v>
+      </c>
+      <c r="C81" s="32"/>
+      <c r="H81" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="I81" s="1"/>
+      <c r="J81" s="1"/>
+    </row>
+    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B82" s="32" t="s">
+        <v>81</v>
+      </c>
+      <c r="C82" s="32"/>
+      <c r="H82" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I82" s="1"/>
+      <c r="J82" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="B82:C82"/>
+    <mergeCell ref="B81:C81"/>
+    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="H81:J81"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9009859891.xlsx
+++ b/Data/EC/NIT-9009859891.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{BBA7DB32-B586-4909-AF4A-5EF960921807}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{07EC87B3-6BB1-4C4B-B62D-0A5FE194FD30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{566D40CC-1B84-4D33-A4A8-5901BA22F800}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{A7B93C38-637D-4B83-9336-AB7D68F567F7}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="264" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="260" uniqueCount="82">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,196 +65,190 @@
     <t>CC</t>
   </si>
   <si>
-    <t>1047509031</t>
-  </si>
-  <si>
-    <t>ZURY ZADAY MONTES JIMENEZ</t>
+    <t>1238340101</t>
+  </si>
+  <si>
+    <t>DANIELA MARITZA LADEUT HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1906</t>
+  </si>
+  <si>
+    <t>2009</t>
+  </si>
+  <si>
+    <t>2010</t>
+  </si>
+  <si>
+    <t>2011</t>
+  </si>
+  <si>
+    <t>2012</t>
+  </si>
+  <si>
+    <t>2101</t>
+  </si>
+  <si>
+    <t>2102</t>
+  </si>
+  <si>
+    <t>2103</t>
+  </si>
+  <si>
+    <t>2104</t>
+  </si>
+  <si>
+    <t>2105</t>
+  </si>
+  <si>
+    <t>2106</t>
+  </si>
+  <si>
+    <t>2107</t>
+  </si>
+  <si>
+    <t>2108</t>
+  </si>
+  <si>
+    <t>2109</t>
+  </si>
+  <si>
+    <t>2110</t>
+  </si>
+  <si>
+    <t>2111</t>
+  </si>
+  <si>
+    <t>2112</t>
+  </si>
+  <si>
+    <t>2201</t>
+  </si>
+  <si>
+    <t>2202</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
+    <t>2204</t>
+  </si>
+  <si>
+    <t>2205</t>
+  </si>
+  <si>
+    <t>2206</t>
+  </si>
+  <si>
+    <t>2207</t>
+  </si>
+  <si>
+    <t>2208</t>
+  </si>
+  <si>
+    <t>2209</t>
+  </si>
+  <si>
+    <t>2210</t>
+  </si>
+  <si>
+    <t>2211</t>
+  </si>
+  <si>
+    <t>2212</t>
+  </si>
+  <si>
+    <t>2301</t>
+  </si>
+  <si>
+    <t>2302</t>
+  </si>
+  <si>
+    <t>2303</t>
+  </si>
+  <si>
+    <t>2304</t>
+  </si>
+  <si>
+    <t>2305</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2309</t>
+  </si>
+  <si>
+    <t>2310</t>
+  </si>
+  <si>
+    <t>2311</t>
+  </si>
+  <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
   </si>
   <si>
     <t>2501</t>
   </si>
   <si>
-    <t>1238340101</t>
-  </si>
-  <si>
-    <t>DANIELA MARITZA LADEUT HERNANDEZ</t>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
-  </si>
-  <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
-    <t>2311</t>
-  </si>
-  <si>
-    <t>2310</t>
-  </si>
-  <si>
-    <t>2309</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>2305</t>
-  </si>
-  <si>
-    <t>2304</t>
-  </si>
-  <si>
-    <t>2303</t>
-  </si>
-  <si>
-    <t>2302</t>
-  </si>
-  <si>
-    <t>2301</t>
-  </si>
-  <si>
-    <t>2212</t>
-  </si>
-  <si>
-    <t>2211</t>
-  </si>
-  <si>
-    <t>2210</t>
-  </si>
-  <si>
-    <t>2209</t>
-  </si>
-  <si>
-    <t>2208</t>
-  </si>
-  <si>
-    <t>2207</t>
-  </si>
-  <si>
-    <t>2206</t>
-  </si>
-  <si>
-    <t>2205</t>
-  </si>
-  <si>
-    <t>2204</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>2202</t>
-  </si>
-  <si>
-    <t>2201</t>
-  </si>
-  <si>
-    <t>2112</t>
-  </si>
-  <si>
-    <t>2111</t>
-  </si>
-  <si>
-    <t>2110</t>
-  </si>
-  <si>
-    <t>2109</t>
-  </si>
-  <si>
-    <t>2108</t>
-  </si>
-  <si>
-    <t>2107</t>
-  </si>
-  <si>
-    <t>2106</t>
-  </si>
-  <si>
-    <t>2105</t>
-  </si>
-  <si>
-    <t>2104</t>
-  </si>
-  <si>
-    <t>2103</t>
-  </si>
-  <si>
-    <t>2102</t>
-  </si>
-  <si>
-    <t>2101</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>1906</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -298,7 +292,7 @@
     <numFmt numFmtId="44" formatCode="_(&quot;$&quot;* #,##0.00_);_(&quot;$&quot;* \(#,##0.00\);_(&quot;$&quot;* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_-&quot;$&quot;\ * #,##0_-;\-&quot;$&quot;\ * #,##0_-;_-&quot;$&quot;\ * &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="4">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -353,9 +347,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -373,156 +517,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -568,23 +562,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -612,10 +606,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -653,13 +647,13 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>667900</xdr:colOff>
+      <xdr:colOff>496450</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>62300</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>2</xdr:col>
-      <xdr:colOff>430650</xdr:colOff>
+      <xdr:colOff>259200</xdr:colOff>
       <xdr:row>4</xdr:row>
       <xdr:rowOff>121850</xdr:rowOff>
     </xdr:to>
@@ -668,7 +662,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2B77EC36-2174-85E9-1DB9-FDAE31576C6A}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{74BFD1B9-E00E-0523-62D0-E5B5AA58726F}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -690,7 +684,7 @@
       </xdr:blipFill>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="921900" y="246450"/>
+          <a:off x="750450" y="246450"/>
           <a:ext cx="975600" cy="612000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
@@ -1019,32 +1013,32 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FB1C57DB-A94B-4FEC-9BA9-43B521CA1639}">
-  <dimension ref="B2:J82"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{460C0524-0724-4C11-884F-258591703BE5}">
+  <dimension ref="B2:J81"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
-    <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="35.90625" style="2" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="19.36328125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="18.08984375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="15" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="16.90625" style="2" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.81640625" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="33" style="2" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7265625" style="2" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.453125" style="2" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="17.90625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="16.81640625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.1796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="2" spans="2:10">
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1053,7 +1047,7 @@
       <c r="I2" s="29"/>
       <c r="J2" s="29"/>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="3" spans="2:10">
       <c r="B3" s="3"/>
       <c r="C3" s="28"/>
       <c r="D3" s="30"/>
@@ -1064,7 +1058,7 @@
       <c r="I3" s="30"/>
       <c r="J3" s="30"/>
     </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="4" spans="2:10">
       <c r="B4" s="3"/>
       <c r="C4" s="28"/>
       <c r="D4" s="30"/>
@@ -1075,7 +1069,7 @@
       <c r="I4" s="30"/>
       <c r="J4" s="30"/>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="5" spans="2:10">
       <c r="B5" s="3"/>
       <c r="C5" s="28"/>
       <c r="D5" s="31"/>
@@ -1086,10 +1080,10 @@
       <c r="I5" s="31"/>
       <c r="J5" s="31"/>
     </row>
-    <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="6" spans="2:10" ht="9" customHeight="1"/>
+    <row r="7" spans="2:10">
       <c r="B7" s="4" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1102,8 +1096,8 @@
       <c r="I7" s="6"/>
       <c r="J7" s="6"/>
     </row>
-    <row r="8" spans="2:10" ht="7.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="8" spans="2:10" ht="7.5" customHeight="1"/>
+    <row r="9" spans="2:10">
       <c r="B9" s="4" t="s">
         <v>6</v>
       </c>
@@ -1118,15 +1112,15 @@
       <c r="I9" s="6"/>
       <c r="J9" s="6"/>
     </row>
-    <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="10" spans="2:10" ht="6.75" customHeight="1"/>
+    <row r="11" spans="2:10">
       <c r="B11" s="4" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>2127731</v>
+        <v>2070791</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1134,17 +1128,17 @@
       <c r="I11" s="7"/>
       <c r="J11" s="7"/>
     </row>
-    <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="12" spans="2:10" ht="4.5" customHeight="1"/>
+    <row r="13" spans="2:10">
       <c r="B13" s="9" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C13" s="5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="F13" s="5">
         <v>60</v>
@@ -1154,7 +1148,7 @@
       <c r="I13" s="5"/>
       <c r="J13" s="5"/>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="15" spans="2:10">
       <c r="B15" s="10" t="s">
         <v>0</v>
       </c>
@@ -1174,16 +1168,16 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="I15" s="13" t="s">
+        <v>76</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>78</v>
       </c>
-      <c r="J15" s="14" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.35">
+    </row>
+    <row r="16" spans="2:10">
       <c r="B16" s="15" t="s">
         <v>8</v>
       </c>
@@ -1197,30 +1191,30 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>56940</v>
+        <v>33125</v>
       </c>
       <c r="G16" s="18">
-        <v>1300000</v>
+        <v>877803</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
       <c r="J16" s="20"/>
     </row>
-    <row r="17" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="17" spans="2:10">
       <c r="B17" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C17" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E17" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="D17" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E17" s="16" t="s">
-        <v>14</v>
-      </c>
       <c r="F17" s="18">
-        <v>1170</v>
+        <v>35112</v>
       </c>
       <c r="G17" s="18">
         <v>877803</v>
@@ -1229,18 +1223,18 @@
       <c r="I17" s="19"/>
       <c r="J17" s="20"/>
     </row>
-    <row r="18" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="18" spans="2:10">
       <c r="B18" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D18" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" s="16" t="s">
         <v>13</v>
-      </c>
-      <c r="E18" s="16" t="s">
-        <v>15</v>
       </c>
       <c r="F18" s="18">
         <v>35112</v>
@@ -1252,18 +1246,18 @@
       <c r="I18" s="19"/>
       <c r="J18" s="20"/>
     </row>
-    <row r="19" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="19" spans="2:10">
       <c r="B19" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="F19" s="18">
         <v>35112</v>
@@ -1275,18 +1269,18 @@
       <c r="I19" s="19"/>
       <c r="J19" s="20"/>
     </row>
-    <row r="20" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="20" spans="2:10">
       <c r="B20" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>35112</v>
@@ -1298,18 +1292,18 @@
       <c r="I20" s="19"/>
       <c r="J20" s="20"/>
     </row>
-    <row r="21" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="21" spans="2:10">
       <c r="B21" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>35112</v>
@@ -1321,18 +1315,18 @@
       <c r="I21" s="19"/>
       <c r="J21" s="20"/>
     </row>
-    <row r="22" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="22" spans="2:10">
       <c r="B22" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="F22" s="18">
         <v>35112</v>
@@ -1344,18 +1338,18 @@
       <c r="I22" s="19"/>
       <c r="J22" s="20"/>
     </row>
-    <row r="23" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="23" spans="2:10">
       <c r="B23" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="F23" s="18">
         <v>35112</v>
@@ -1367,18 +1361,18 @@
       <c r="I23" s="19"/>
       <c r="J23" s="20"/>
     </row>
-    <row r="24" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="24" spans="2:10">
       <c r="B24" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>35112</v>
@@ -1390,18 +1384,18 @@
       <c r="I24" s="19"/>
       <c r="J24" s="20"/>
     </row>
-    <row r="25" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="25" spans="2:10">
       <c r="B25" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F25" s="18">
         <v>35112</v>
@@ -1413,18 +1407,18 @@
       <c r="I25" s="19"/>
       <c r="J25" s="20"/>
     </row>
-    <row r="26" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="26" spans="2:10">
       <c r="B26" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F26" s="18">
         <v>35112</v>
@@ -1436,18 +1430,18 @@
       <c r="I26" s="19"/>
       <c r="J26" s="20"/>
     </row>
-    <row r="27" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="27" spans="2:10">
       <c r="B27" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F27" s="18">
         <v>35112</v>
@@ -1459,18 +1453,18 @@
       <c r="I27" s="19"/>
       <c r="J27" s="20"/>
     </row>
-    <row r="28" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="28" spans="2:10">
       <c r="B28" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F28" s="18">
         <v>35112</v>
@@ -1482,18 +1476,18 @@
       <c r="I28" s="19"/>
       <c r="J28" s="20"/>
     </row>
-    <row r="29" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="29" spans="2:10">
       <c r="B29" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F29" s="18">
         <v>35112</v>
@@ -1505,18 +1499,18 @@
       <c r="I29" s="19"/>
       <c r="J29" s="20"/>
     </row>
-    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="30" spans="2:10">
       <c r="B30" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F30" s="18">
         <v>35112</v>
@@ -1528,18 +1522,18 @@
       <c r="I30" s="19"/>
       <c r="J30" s="20"/>
     </row>
-    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="31" spans="2:10">
       <c r="B31" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C31" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D31" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F31" s="18">
         <v>35112</v>
@@ -1551,18 +1545,18 @@
       <c r="I31" s="19"/>
       <c r="J31" s="20"/>
     </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="32" spans="2:10">
       <c r="B32" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F32" s="18">
         <v>35112</v>
@@ -1574,18 +1568,18 @@
       <c r="I32" s="19"/>
       <c r="J32" s="20"/>
     </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="33" spans="2:10">
       <c r="B33" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C33" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D33" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F33" s="18">
         <v>35112</v>
@@ -1597,18 +1591,18 @@
       <c r="I33" s="19"/>
       <c r="J33" s="20"/>
     </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="34" spans="2:10">
       <c r="B34" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="F34" s="18">
         <v>35112</v>
@@ -1620,18 +1614,18 @@
       <c r="I34" s="19"/>
       <c r="J34" s="20"/>
     </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="35" spans="2:10">
       <c r="B35" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C35" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D35" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F35" s="18">
         <v>35112</v>
@@ -1643,18 +1637,18 @@
       <c r="I35" s="19"/>
       <c r="J35" s="20"/>
     </row>
-    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="36" spans="2:10">
       <c r="B36" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F36" s="18">
         <v>35112</v>
@@ -1666,18 +1660,18 @@
       <c r="I36" s="19"/>
       <c r="J36" s="20"/>
     </row>
-    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="37" spans="2:10">
       <c r="B37" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="F37" s="18">
         <v>35112</v>
@@ -1689,18 +1683,18 @@
       <c r="I37" s="19"/>
       <c r="J37" s="20"/>
     </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="38" spans="2:10">
       <c r="B38" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F38" s="18">
         <v>35112</v>
@@ -1712,18 +1706,18 @@
       <c r="I38" s="19"/>
       <c r="J38" s="20"/>
     </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="39" spans="2:10">
       <c r="B39" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="F39" s="18">
         <v>35112</v>
@@ -1735,18 +1729,18 @@
       <c r="I39" s="19"/>
       <c r="J39" s="20"/>
     </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="40" spans="2:10">
       <c r="B40" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="F40" s="18">
         <v>35112</v>
@@ -1758,18 +1752,18 @@
       <c r="I40" s="19"/>
       <c r="J40" s="20"/>
     </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="41" spans="2:10">
       <c r="B41" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F41" s="18">
         <v>35112</v>
@@ -1781,18 +1775,18 @@
       <c r="I41" s="19"/>
       <c r="J41" s="20"/>
     </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="42" spans="2:10">
       <c r="B42" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="18">
         <v>35112</v>
@@ -1804,18 +1798,18 @@
       <c r="I42" s="19"/>
       <c r="J42" s="20"/>
     </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="43" spans="2:10">
       <c r="B43" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="F43" s="18">
         <v>35112</v>
@@ -1827,18 +1821,18 @@
       <c r="I43" s="19"/>
       <c r="J43" s="20"/>
     </row>
-    <row r="44" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="44" spans="2:10">
       <c r="B44" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F44" s="18">
         <v>35112</v>
@@ -1850,18 +1844,18 @@
       <c r="I44" s="19"/>
       <c r="J44" s="20"/>
     </row>
-    <row r="45" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="45" spans="2:10">
       <c r="B45" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="F45" s="18">
         <v>35112</v>
@@ -1873,18 +1867,18 @@
       <c r="I45" s="19"/>
       <c r="J45" s="20"/>
     </row>
-    <row r="46" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="46" spans="2:10">
       <c r="B46" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F46" s="18">
         <v>35112</v>
@@ -1896,18 +1890,18 @@
       <c r="I46" s="19"/>
       <c r="J46" s="20"/>
     </row>
-    <row r="47" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="47" spans="2:10">
       <c r="B47" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F47" s="18">
         <v>35112</v>
@@ -1919,18 +1913,18 @@
       <c r="I47" s="19"/>
       <c r="J47" s="20"/>
     </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="48" spans="2:10">
       <c r="B48" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F48" s="18">
         <v>35112</v>
@@ -1942,18 +1936,18 @@
       <c r="I48" s="19"/>
       <c r="J48" s="20"/>
     </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="49" spans="2:10">
       <c r="B49" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F49" s="18">
         <v>35112</v>
@@ -1965,18 +1959,18 @@
       <c r="I49" s="19"/>
       <c r="J49" s="20"/>
     </row>
-    <row r="50" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="50" spans="2:10">
       <c r="B50" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F50" s="18">
         <v>35112</v>
@@ -1988,18 +1982,18 @@
       <c r="I50" s="19"/>
       <c r="J50" s="20"/>
     </row>
-    <row r="51" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="51" spans="2:10">
       <c r="B51" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="F51" s="18">
         <v>35112</v>
@@ -2011,18 +2005,18 @@
       <c r="I51" s="19"/>
       <c r="J51" s="20"/>
     </row>
-    <row r="52" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:10">
       <c r="B52" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="F52" s="18">
         <v>35112</v>
@@ -2034,18 +2028,18 @@
       <c r="I52" s="19"/>
       <c r="J52" s="20"/>
     </row>
-    <row r="53" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="53" spans="2:10">
       <c r="B53" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F53" s="18">
         <v>35112</v>
@@ -2057,18 +2051,18 @@
       <c r="I53" s="19"/>
       <c r="J53" s="20"/>
     </row>
-    <row r="54" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="54" spans="2:10">
       <c r="B54" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="F54" s="18">
         <v>35112</v>
@@ -2080,18 +2074,18 @@
       <c r="I54" s="19"/>
       <c r="J54" s="20"/>
     </row>
-    <row r="55" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="55" spans="2:10">
       <c r="B55" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="F55" s="18">
         <v>35112</v>
@@ -2103,18 +2097,18 @@
       <c r="I55" s="19"/>
       <c r="J55" s="20"/>
     </row>
-    <row r="56" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="56" spans="2:10">
       <c r="B56" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F56" s="18">
         <v>35112</v>
@@ -2126,18 +2120,18 @@
       <c r="I56" s="19"/>
       <c r="J56" s="20"/>
     </row>
-    <row r="57" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="57" spans="2:10">
       <c r="B57" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="F57" s="18">
         <v>35112</v>
@@ -2149,18 +2143,18 @@
       <c r="I57" s="19"/>
       <c r="J57" s="20"/>
     </row>
-    <row r="58" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="58" spans="2:10">
       <c r="B58" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="F58" s="18">
         <v>35112</v>
@@ -2172,18 +2166,18 @@
       <c r="I58" s="19"/>
       <c r="J58" s="20"/>
     </row>
-    <row r="59" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="59" spans="2:10">
       <c r="B59" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="F59" s="18">
         <v>35112</v>
@@ -2195,18 +2189,18 @@
       <c r="I59" s="19"/>
       <c r="J59" s="20"/>
     </row>
-    <row r="60" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="60" spans="2:10">
       <c r="B60" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F60" s="18">
         <v>35112</v>
@@ -2218,18 +2212,18 @@
       <c r="I60" s="19"/>
       <c r="J60" s="20"/>
     </row>
-    <row r="61" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="61" spans="2:10">
       <c r="B61" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="F61" s="18">
         <v>35112</v>
@@ -2241,18 +2235,18 @@
       <c r="I61" s="19"/>
       <c r="J61" s="20"/>
     </row>
-    <row r="62" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="62" spans="2:10">
       <c r="B62" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F62" s="18">
         <v>35112</v>
@@ -2264,18 +2258,18 @@
       <c r="I62" s="19"/>
       <c r="J62" s="20"/>
     </row>
-    <row r="63" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="63" spans="2:10">
       <c r="B63" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F63" s="18">
         <v>35112</v>
@@ -2287,18 +2281,18 @@
       <c r="I63" s="19"/>
       <c r="J63" s="20"/>
     </row>
-    <row r="64" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="64" spans="2:10">
       <c r="B64" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
         <v>35112</v>
@@ -2310,18 +2304,18 @@
       <c r="I64" s="19"/>
       <c r="J64" s="20"/>
     </row>
-    <row r="65" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="65" spans="2:10">
       <c r="B65" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="F65" s="18">
         <v>35112</v>
@@ -2333,18 +2327,18 @@
       <c r="I65" s="19"/>
       <c r="J65" s="20"/>
     </row>
-    <row r="66" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="66" spans="2:10">
       <c r="B66" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="F66" s="18">
         <v>35112</v>
@@ -2356,18 +2350,18 @@
       <c r="I66" s="19"/>
       <c r="J66" s="20"/>
     </row>
-    <row r="67" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="67" spans="2:10">
       <c r="B67" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="F67" s="18">
         <v>35112</v>
@@ -2379,18 +2373,18 @@
       <c r="I67" s="19"/>
       <c r="J67" s="20"/>
     </row>
-    <row r="68" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="68" spans="2:10">
       <c r="B68" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="F68" s="18">
         <v>35112</v>
@@ -2402,18 +2396,18 @@
       <c r="I68" s="19"/>
       <c r="J68" s="20"/>
     </row>
-    <row r="69" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="69" spans="2:10">
       <c r="B69" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D69" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E69" s="16" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F69" s="18">
         <v>35112</v>
@@ -2425,18 +2419,18 @@
       <c r="I69" s="19"/>
       <c r="J69" s="20"/>
     </row>
-    <row r="70" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="70" spans="2:10">
       <c r="B70" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F70" s="18">
         <v>35112</v>
@@ -2448,18 +2442,18 @@
       <c r="I70" s="19"/>
       <c r="J70" s="20"/>
     </row>
-    <row r="71" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="71" spans="2:10">
       <c r="B71" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F71" s="18">
         <v>35112</v>
@@ -2471,18 +2465,18 @@
       <c r="I71" s="19"/>
       <c r="J71" s="20"/>
     </row>
-    <row r="72" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="72" spans="2:10">
       <c r="B72" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="F72" s="18">
         <v>35112</v>
@@ -2494,18 +2488,18 @@
       <c r="I72" s="19"/>
       <c r="J72" s="20"/>
     </row>
-    <row r="73" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="73" spans="2:10">
       <c r="B73" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F73" s="18">
         <v>35112</v>
@@ -2517,18 +2511,18 @@
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
-    <row r="74" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="74" spans="2:10">
       <c r="B74" s="15" t="s">
         <v>8</v>
       </c>
       <c r="C74" s="16" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="D74" s="17" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="E74" s="16" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="F74" s="18">
         <v>35112</v>
@@ -2540,80 +2534,57 @@
       <c r="I74" s="19"/>
       <c r="J74" s="20"/>
     </row>
-    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B75" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C75" s="16" t="s">
-        <v>12</v>
-      </c>
-      <c r="D75" s="17" t="s">
-        <v>13</v>
-      </c>
-      <c r="E75" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="F75" s="18">
-        <v>35112</v>
-      </c>
-      <c r="G75" s="18">
-        <v>877803</v>
-      </c>
-      <c r="H75" s="19"/>
-      <c r="I75" s="19"/>
-      <c r="J75" s="20"/>
-    </row>
-    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B76" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C76" s="22" t="s">
-        <v>12</v>
-      </c>
-      <c r="D76" s="23" t="s">
-        <v>13</v>
-      </c>
-      <c r="E76" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="F76" s="24">
-        <v>33125</v>
-      </c>
-      <c r="G76" s="24">
-        <v>877803</v>
-      </c>
-      <c r="H76" s="25"/>
-      <c r="I76" s="25"/>
-      <c r="J76" s="26"/>
-    </row>
-    <row r="81" spans="2:10" x14ac:dyDescent="0.35">
+    <row r="75" spans="2:10">
+      <c r="B75" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="22" t="s">
+        <v>9</v>
+      </c>
+      <c r="D75" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="E75" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="F75" s="24">
+        <v>1170</v>
+      </c>
+      <c r="G75" s="24">
+        <v>877803</v>
+      </c>
+      <c r="H75" s="25"/>
+      <c r="I75" s="25"/>
+      <c r="J75" s="26"/>
+    </row>
+    <row r="80" spans="2:10">
+      <c r="B80" s="32" t="s">
+        <v>80</v>
+      </c>
+      <c r="C80" s="32"/>
+      <c r="H80" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="I80" s="1"/>
+      <c r="J80" s="1"/>
+    </row>
+    <row r="81" spans="2:10">
       <c r="B81" s="32" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C81" s="32"/>
       <c r="H81" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="I81" s="1"/>
       <c r="J81" s="1"/>
     </row>
-    <row r="82" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B82" s="32" t="s">
-        <v>81</v>
-      </c>
-      <c r="C82" s="32"/>
-      <c r="H82" s="1" t="s">
-        <v>83</v>
-      </c>
-      <c r="I82" s="1"/>
-      <c r="J82" s="1"/>
-    </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B82:C82"/>
     <mergeCell ref="B81:C81"/>
-    <mergeCell ref="H82:J82"/>
+    <mergeCell ref="B80:C80"/>
     <mergeCell ref="H81:J81"/>
+    <mergeCell ref="H80:J80"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
